--- a/CW40_BOM .xlsx
+++ b/CW40_BOM .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>X1</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>WS2812B</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SI2305</t>
   </si>
 </sst>
 </file>
@@ -456,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,6 +607,17 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B9" r:id="rId1"/>
